--- a/pion_qT/expdata/1002.xlsx
+++ b/pion_qT/expdata/1002.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninacao/Desktop/fitpack2/database/pion_qT/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/fitpack2/database/pion_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6BA912-10E3-B64E-9E8E-B4B80CBE27B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DD7EDD-1324-2646-A895-4545692F6EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{E6E3B163-33F6-E044-A176-E8F274F71224}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="17040" xr2:uid="{E6E3B163-33F6-E044-A176-E8F274F71224}"/>
   </bookViews>
   <sheets>
     <sheet name="d2sigma dpTdx" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="16">
   <si>
     <t>x_min</t>
   </si>
@@ -76,6 +79,9 @@
   </si>
   <si>
     <t>%norm_c</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -281,7 +287,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -577,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0C60F2-0166-4D48-9B9B-CFC017B0C565}">
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="65" workbookViewId="0">
-      <selection activeCell="I167" sqref="I167"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="65" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,7 +598,7 @@
     <col min="10" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -626,8 +632,11 @@
       <c r="K1" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L1" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -662,8 +671,11 @@
       <c r="K2" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L2" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -698,8 +710,11 @@
       <c r="K3" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L3" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -734,8 +749,11 @@
       <c r="K4" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L4" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -770,8 +788,11 @@
       <c r="K5" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L5" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -806,8 +827,11 @@
       <c r="K6" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L6" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -842,8 +866,11 @@
       <c r="K7" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L7" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -878,8 +905,11 @@
       <c r="K8" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L8" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -914,8 +944,11 @@
       <c r="K9" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L9" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -950,8 +983,11 @@
       <c r="K10" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L10" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -986,8 +1022,11 @@
       <c r="K11" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L11" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1022,8 +1061,11 @@
       <c r="K12" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L12" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1058,8 +1100,11 @@
       <c r="K13" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L13" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1094,8 +1139,11 @@
       <c r="K14" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L14" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1130,8 +1178,11 @@
       <c r="K15" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L15" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1166,8 +1217,11 @@
       <c r="K16" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L16" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1202,8 +1256,11 @@
       <c r="K17" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L17" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1238,8 +1295,11 @@
       <c r="K18" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L18" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1274,8 +1334,11 @@
       <c r="K19" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L19" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1310,8 +1373,11 @@
       <c r="K20" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L20" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -1346,8 +1412,11 @@
       <c r="K21" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L21" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -1382,8 +1451,11 @@
       <c r="K22" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L22" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -1418,8 +1490,11 @@
       <c r="K23" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L23" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -1454,8 +1529,11 @@
       <c r="K24" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L24" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -1490,8 +1568,11 @@
       <c r="K25" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L25" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -1526,8 +1607,11 @@
       <c r="K26" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L26" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -1562,8 +1646,11 @@
       <c r="K27" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L27" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -1598,8 +1685,11 @@
       <c r="K28" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L28" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -1634,8 +1724,11 @@
       <c r="K29" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L29" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -1670,8 +1763,11 @@
       <c r="K30" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L30" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -1706,8 +1802,11 @@
       <c r="K31" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L31" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -1742,8 +1841,11 @@
       <c r="K32" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L32" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -1778,8 +1880,11 @@
       <c r="K33" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L33" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -1814,8 +1919,11 @@
       <c r="K34" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L34" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1850,8 +1958,11 @@
       <c r="K35" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L35" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -1886,8 +1997,11 @@
       <c r="K36" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L36" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -1922,8 +2036,11 @@
       <c r="K37" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L37" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -1958,8 +2075,11 @@
       <c r="K38" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L38" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -1994,8 +2114,11 @@
       <c r="K39" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L39" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -2030,8 +2153,11 @@
       <c r="K40" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L40" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -2066,8 +2192,11 @@
       <c r="K41" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L41" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -2102,8 +2231,11 @@
       <c r="K42" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L42" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -2138,8 +2270,11 @@
       <c r="K43" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L43" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -2174,8 +2309,11 @@
       <c r="K44" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L44" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -2210,8 +2348,11 @@
       <c r="K45" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L45" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -2246,8 +2387,11 @@
       <c r="K46" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L46" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -2282,8 +2426,11 @@
       <c r="K47" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L47" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -2318,8 +2465,11 @@
       <c r="K48" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L48" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -2354,8 +2504,11 @@
       <c r="K49" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L49" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -2390,8 +2543,11 @@
       <c r="K50" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L50" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -2426,8 +2582,11 @@
       <c r="K51" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L51" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -2462,8 +2621,11 @@
       <c r="K52" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L52" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -2498,8 +2660,11 @@
       <c r="K53" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L53" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -2534,8 +2699,11 @@
       <c r="K54" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L54" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -2570,8 +2738,11 @@
       <c r="K55" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L55" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -2606,8 +2777,11 @@
       <c r="K56" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L56" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -2642,8 +2816,11 @@
       <c r="K57" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L57" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -2678,8 +2855,11 @@
       <c r="K58" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L58" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -2714,8 +2894,11 @@
       <c r="K59" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L59" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
         <v>59</v>
       </c>
@@ -2750,8 +2933,11 @@
       <c r="K60" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L60" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -2786,8 +2972,11 @@
       <c r="K61" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L61" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
         <v>61</v>
       </c>
@@ -2822,8 +3011,11 @@
       <c r="K62" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L62" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
         <v>62</v>
       </c>
@@ -2858,8 +3050,11 @@
       <c r="K63" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L63" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
         <v>63</v>
       </c>
@@ -2894,8 +3089,11 @@
       <c r="K64" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L64" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="13">
         <v>64</v>
       </c>
@@ -2930,8 +3128,11 @@
       <c r="K65" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L65" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="13">
         <v>65</v>
       </c>
@@ -2966,8 +3167,11 @@
       <c r="K66" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L66" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="13">
         <v>66</v>
       </c>
@@ -3002,8 +3206,11 @@
       <c r="K67" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L67" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="13">
         <v>67</v>
       </c>
@@ -3038,8 +3245,11 @@
       <c r="K68" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L68" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="13">
         <v>68</v>
       </c>
@@ -3074,8 +3284,11 @@
       <c r="K69" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L69" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="13">
         <v>69</v>
       </c>
@@ -3110,8 +3323,11 @@
       <c r="K70" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L70" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="13">
         <v>70</v>
       </c>
@@ -3146,8 +3362,11 @@
       <c r="K71" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L71" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="13">
         <v>71</v>
       </c>
@@ -3182,8 +3401,11 @@
       <c r="K72" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L72" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="13">
         <v>72</v>
       </c>
@@ -3218,8 +3440,11 @@
       <c r="K73" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L73" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -3254,8 +3479,11 @@
       <c r="K74" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L74" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="13">
         <v>74</v>
       </c>
@@ -3290,8 +3518,11 @@
       <c r="K75" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L75" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -3326,8 +3557,11 @@
       <c r="K76" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L76" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -3362,8 +3596,11 @@
       <c r="K77" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L77" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="13">
         <v>77</v>
       </c>
@@ -3398,8 +3635,11 @@
       <c r="K78" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L78" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
         <v>78</v>
       </c>
@@ -3434,8 +3674,11 @@
       <c r="K79" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L79" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="13">
         <v>79</v>
       </c>
@@ -3470,8 +3713,11 @@
       <c r="K80" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L80" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -3506,8 +3752,11 @@
       <c r="K81" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L81" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="13">
         <v>81</v>
       </c>
@@ -3542,8 +3791,11 @@
       <c r="K82" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L82" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="13">
         <v>82</v>
       </c>
@@ -3578,8 +3830,11 @@
       <c r="K83" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L83" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
         <v>83</v>
       </c>
@@ -3614,8 +3869,11 @@
       <c r="K84" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L84" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
         <v>84</v>
       </c>
@@ -3650,8 +3908,11 @@
       <c r="K85" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L85" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <v>85</v>
       </c>
@@ -3686,8 +3947,11 @@
       <c r="K86" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L86" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -3722,8 +3986,11 @@
       <c r="K87" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L87" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
         <v>87</v>
       </c>
@@ -3758,8 +4025,11 @@
       <c r="K88" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L88" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -3794,8 +4064,11 @@
       <c r="K89" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L89" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -3830,8 +4103,11 @@
       <c r="K90" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L90" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -3866,8 +4142,11 @@
       <c r="K91" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L91" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="13">
         <v>91</v>
       </c>
@@ -3902,8 +4181,11 @@
       <c r="K92" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L92" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -3938,8 +4220,11 @@
       <c r="K93" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L93" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="13">
         <v>93</v>
       </c>
@@ -3974,8 +4259,11 @@
       <c r="K94" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L94" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="13">
         <v>94</v>
       </c>
@@ -4010,8 +4298,11 @@
       <c r="K95" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L95" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -4046,8 +4337,11 @@
       <c r="K96" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L96" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="13">
         <v>96</v>
       </c>
@@ -4082,8 +4376,11 @@
       <c r="K97" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L97" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="13">
         <v>97</v>
       </c>
@@ -4118,8 +4415,11 @@
       <c r="K98" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L98" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -4154,8 +4454,11 @@
       <c r="K99" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L99" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="13">
         <v>99</v>
       </c>
@@ -4190,8 +4493,11 @@
       <c r="K100" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L100" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="13">
         <v>100</v>
       </c>
@@ -4226,8 +4532,11 @@
       <c r="K101" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L101" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="13">
         <v>101</v>
       </c>
@@ -4262,8 +4571,11 @@
       <c r="K102" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L102" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="13">
         <v>102</v>
       </c>
@@ -4298,8 +4610,11 @@
       <c r="K103" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L103" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="13">
         <v>103</v>
       </c>
@@ -4334,8 +4649,11 @@
       <c r="K104" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L104" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="13">
         <v>104</v>
       </c>
@@ -4370,8 +4688,11 @@
       <c r="K105" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L105" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="13">
         <v>105</v>
       </c>
@@ -4406,8 +4727,11 @@
       <c r="K106" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L106" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="13">
         <v>106</v>
       </c>
@@ -4442,8 +4766,11 @@
       <c r="K107" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L107" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="13">
         <v>107</v>
       </c>
@@ -4478,8 +4805,11 @@
       <c r="K108" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L108" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="13">
         <v>108</v>
       </c>
@@ -4514,8 +4844,11 @@
       <c r="K109" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L109" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="13">
         <v>109</v>
       </c>
@@ -4550,8 +4883,11 @@
       <c r="K110" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L110" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="13">
         <v>110</v>
       </c>
@@ -4586,8 +4922,11 @@
       <c r="K111" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L111" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="13">
         <v>111</v>
       </c>
@@ -4622,8 +4961,11 @@
       <c r="K112" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L112" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="13">
         <v>112</v>
       </c>
@@ -4658,8 +5000,11 @@
       <c r="K113" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L113" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="13">
         <v>113</v>
       </c>
@@ -4694,8 +5039,11 @@
       <c r="K114" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L114" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="13">
         <v>114</v>
       </c>
@@ -4730,8 +5078,11 @@
       <c r="K115" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L115" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="13">
         <v>115</v>
       </c>
@@ -4766,8 +5117,11 @@
       <c r="K116" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L116" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="13">
         <v>116</v>
       </c>
@@ -4802,8 +5156,11 @@
       <c r="K117" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L117" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="13">
         <v>117</v>
       </c>
@@ -4838,8 +5195,11 @@
       <c r="K118" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L118" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="13">
         <v>118</v>
       </c>
@@ -4874,8 +5234,11 @@
       <c r="K119" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L119" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="13">
         <v>119</v>
       </c>
@@ -4910,8 +5273,11 @@
       <c r="K120" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L120" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="13">
         <v>120</v>
       </c>
@@ -4946,8 +5312,11 @@
       <c r="K121" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L121" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="13">
         <v>121</v>
       </c>
@@ -4982,8 +5351,11 @@
       <c r="K122" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L122" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="13">
         <v>122</v>
       </c>
@@ -5018,8 +5390,11 @@
       <c r="K123" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L123" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="13">
         <v>123</v>
       </c>
@@ -5054,8 +5429,11 @@
       <c r="K124" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L124" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="13">
         <v>124</v>
       </c>
@@ -5090,8 +5468,11 @@
       <c r="K125" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L125" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="13">
         <v>125</v>
       </c>
@@ -5126,8 +5507,11 @@
       <c r="K126" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L126" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="13">
         <v>126</v>
       </c>
@@ -5162,8 +5546,11 @@
       <c r="K127" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L127" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="13">
         <v>127</v>
       </c>
@@ -5198,8 +5585,11 @@
       <c r="K128" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L128" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="13">
         <v>128</v>
       </c>
@@ -5234,8 +5624,11 @@
       <c r="K129" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L129" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="13">
         <v>129</v>
       </c>
@@ -5270,8 +5663,11 @@
       <c r="K130" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L130" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="13">
         <v>130</v>
       </c>
@@ -5306,8 +5702,11 @@
       <c r="K131" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L131" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="13">
         <v>131</v>
       </c>
@@ -5342,8 +5741,11 @@
       <c r="K132" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L132" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="13">
         <v>132</v>
       </c>
@@ -5378,8 +5780,11 @@
       <c r="K133" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L133" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="13">
         <v>133</v>
       </c>
@@ -5414,8 +5819,11 @@
       <c r="K134" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L134" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="13">
         <v>134</v>
       </c>
@@ -5450,8 +5858,11 @@
       <c r="K135" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L135" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="13">
         <v>135</v>
       </c>
@@ -5486,8 +5897,11 @@
       <c r="K136" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L136" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="13">
         <v>136</v>
       </c>
@@ -5522,8 +5936,11 @@
       <c r="K137" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L137" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="13">
         <v>137</v>
       </c>
@@ -5558,8 +5975,11 @@
       <c r="K138" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L138" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="13">
         <v>138</v>
       </c>
@@ -5594,8 +6014,11 @@
       <c r="K139" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L139" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="13">
         <v>139</v>
       </c>
@@ -5630,8 +6053,11 @@
       <c r="K140" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L140" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="13">
         <v>140</v>
       </c>
@@ -5666,8 +6092,11 @@
       <c r="K141" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L141" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="13">
         <v>141</v>
       </c>
@@ -5702,8 +6131,11 @@
       <c r="K142" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L142" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="13">
         <v>142</v>
       </c>
@@ -5738,8 +6170,11 @@
       <c r="K143" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L143" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="13">
         <v>143</v>
       </c>
@@ -5774,8 +6209,11 @@
       <c r="K144" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L144" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="13">
         <v>144</v>
       </c>
@@ -5810,8 +6248,11 @@
       <c r="K145" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L145" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="13">
         <v>145</v>
       </c>
@@ -5846,8 +6287,11 @@
       <c r="K146" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L146" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="13">
         <v>146</v>
       </c>
@@ -5882,8 +6326,11 @@
       <c r="K147" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L147" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="13">
         <v>147</v>
       </c>
@@ -5918,8 +6365,11 @@
       <c r="K148" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="L148" s="16">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="13">
         <v>148</v>
       </c>
@@ -5953,6 +6403,9 @@
       </c>
       <c r="K149" s="16">
         <v>16</v>
+      </c>
+      <c r="L149" s="16">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/pion_qT/expdata/1002.xlsx
+++ b/pion_qT/expdata/1002.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/pion_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA7A8C7-8DCE-2048-8E5B-42F10D43EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C6652D-CD24-9B4D-896D-EBA1C248B2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="4140" windowWidth="28040" windowHeight="17040" xr2:uid="{E6E3B163-33F6-E044-A176-E8F274F71224}"/>
   </bookViews>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0C60F2-0166-4D48-9B9B-CFC017B0C565}">
   <dimension ref="A1:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
